--- a/genshin/430304192049358335_2020-09-02_14-00-02.xlsx
+++ b/genshin/430304192049358335_2020-09-02_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>3446137813</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-09-03 15:19:28</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44077.63851851852</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -611,10 +625,8 @@
           <t>3446406041</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-03 14:19:40</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44077.59699074074</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -682,10 +694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-03 00:24:03</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44077.01670138889</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -749,10 +759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-02 22:32:37</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44076.93931712963</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -816,10 +824,8 @@
           <t>3447284638</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-02 20:33:38</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44076.85668981481</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -898,10 +904,8 @@
           <t>3446199309</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-02 20:33:14</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44076.85641203704</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -965,10 +969,8 @@
           <t>3447284638</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-02 20:02:18</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44076.83493055555</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1044,10 +1046,8 @@
           <t>3446242688</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-02 19:17:41</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44076.80394675926</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1123,10 +1123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:34:38</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44076.77405092592</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1195,10 +1193,8 @@
           <t>3446905884</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:27:14</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44076.76891203703</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1274,10 +1270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:55:13</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44076.74667824074</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1353,10 +1347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:42:28</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44076.73782407407</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1428,10 +1420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:28:12</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44076.72791666666</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1507,10 +1497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:21:16</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44076.72310185185</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1586,10 +1574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:15:48</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44076.71930555555</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -1657,10 +1643,8 @@
           <t>3446406041</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:57:45</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44076.70677083333</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1728,10 +1712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:57:39</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44076.70670138889</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1799,10 +1781,8 @@
           <t>3446406041</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:53:23</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44076.70373842592</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1870,10 +1850,8 @@
           <t>3446466789</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:52:37</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44076.70320601852</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1941,10 +1919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:44:20</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44076.6974537037</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2012,10 +1988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:43:41</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44076.69700231482</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2088,10 +2062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:34:57</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44076.6909375</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2159,10 +2131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:31:07</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44076.68827546296</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2234,10 +2204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:28:26</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44076.68641203704</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2313,10 +2281,8 @@
           <t>3446486407</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:24:51</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44076.68392361111</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2388,10 +2354,8 @@
           <t>3446406041</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:24:38</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44076.68377314815</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2459,10 +2423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:23:02</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44076.68266203703</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2530,10 +2492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:22:25</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44076.68223379629</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2609,10 +2569,8 @@
           <t>3446466789</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:17:18</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44076.67868055555</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2688,10 +2646,8 @@
           <t>3446466482</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:16:58</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44076.67844907408</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2767,10 +2723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:09:29</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44076.67325231482</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2834,10 +2788,8 @@
           <t>3446406041</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:09:14</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44076.6730787037</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2905,10 +2857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:08:02</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44076.67224537037</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2980,10 +2930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:04:50</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44076.67002314814</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3058,10 +3006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:58:13</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44076.66542824074</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3125,10 +3071,8 @@
           <t>3446406041</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:54:26</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44076.66280092593</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3196,10 +3140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:46:05</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44076.65700231482</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3275,10 +3217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:41:42</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44076.65395833334</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3342,10 +3282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:33:36</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44076.64833333333</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3409,10 +3347,8 @@
           <t>3446339492</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:32:32</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44076.64759259259</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3472,10 +3408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:30:01</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44076.64584490741</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
@@ -3547,10 +3481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:22:47</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44076.64082175926</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3610,10 +3542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:17:13</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44076.63695601852</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3689,10 +3619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:09:03</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44076.63128472222</v>
       </c>
       <c r="I45" t="n">
         <v>3</v>
@@ -3756,10 +3684,8 @@
           <t>3446273804</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:03:33</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44076.62746527778</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3827,10 +3753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:03:07</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44076.62716435185</v>
       </c>
       <c r="I47" t="n">
         <v>14</v>
@@ -3898,10 +3822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:02:45</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44076.62690972222</v>
       </c>
       <c r="I48" t="n">
         <v>21</v>
@@ -3969,10 +3891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:50:31</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44076.61841435185</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4048,10 +3968,8 @@
           <t>3446242688</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:49:58</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44076.61803240741</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4127,10 +4045,8 @@
           <t>3446143778</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:49:52</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44076.61796296296</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4198,10 +4114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:47:21</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44076.61621527778</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -4265,10 +4179,8 @@
           <t>3446118930</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:46:43</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44076.61577546296</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4340,10 +4252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:43:45</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44076.61371527778</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4419,10 +4329,8 @@
           <t>3446225930</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:41:38</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44076.61224537037</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4490,10 +4398,8 @@
           <t>3446216809</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:40:31</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44076.61146990741</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4570,10 +4476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:38:50</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44076.61030092592</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4649,10 +4553,8 @@
           <t>3446199309</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:33:49</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44076.60681712963</v>
       </c>
       <c r="I58" t="n">
         <v>5</v>
@@ -4720,10 +4622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:32:45</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44076.60607638889</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4795,10 +4695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:30:46</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44076.60469907407</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4874,10 +4772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:29:53</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44076.60408564815</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4941,10 +4837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:28:45</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44076.60329861111</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5008,10 +4902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:27:42</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44076.60256944445</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5079,10 +4971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:27:40</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44076.60254629629</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5158,10 +5048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:27:19</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44076.60230324074</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5237,10 +5125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:27:14</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44076.60224537037</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5300,10 +5186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:24:50</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44076.60057870371</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5379,10 +5263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:23:30</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44076.59965277778</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5446,10 +5328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:22:27</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44076.59892361111</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5527,10 +5407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:21:37</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44076.5983449074</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
@@ -5598,10 +5476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:21:24</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44076.59819444444</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5669,10 +5545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:20:23</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44076.59748842593</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5732,10 +5606,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:20:12</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44076.59736111111</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5803,10 +5675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:19:44</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44076.59703703703</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5878,10 +5748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:19:15</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44076.59670138889</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -5949,10 +5817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:19:04</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44076.59657407407</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6024,10 +5890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:17:51</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44076.59572916666</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6095,10 +5959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:17:37</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44076.59556712963</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6162,10 +6024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:16:53</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44076.59505787037</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6242,10 +6102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:16:20</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44076.59467592592</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6313,10 +6171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:15:39</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44076.59420138889</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6388,10 +6244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:15:19</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44076.59396990741</v>
       </c>
       <c r="I82" t="n">
         <v>6</v>
@@ -6463,10 +6317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:13:34</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44076.59275462963</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6530,10 +6382,8 @@
           <t>3446143778</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:13:28</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44076.59268518518</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
@@ -6605,10 +6455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:12:40</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44076.59212962963</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6684,10 +6532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:12:03</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44076.59170138889</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6759,10 +6605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:11:51</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44076.5915625</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6838,10 +6682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:11:31</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44076.59133101852</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6905,10 +6747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:11:10</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44076.59108796297</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6976,10 +6816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:10:02</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44076.59030092593</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7055,10 +6893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:09:34</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44076.58997685185</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7134,10 +6970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:09:29</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44076.58991898148</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7210,10 +7044,8 @@
           <t>3446122403</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:09:17</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44076.5897800926</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7285,10 +7117,8 @@
           <t>3446137813</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:08:31</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44076.58924768519</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -7367,10 +7197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:08:08</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44076.58898148148</v>
       </c>
       <c r="I95" t="n">
         <v>18</v>
@@ -7449,10 +7277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:08:01</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44076.58890046296</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7528,10 +7354,8 @@
           <t>3446133334</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:08:00</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44076.58888888889</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7599,10 +7423,8 @@
           <t>3446118930</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:07:51</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44076.58878472223</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7666,10 +7488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:07:41</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44076.58866898148</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7741,10 +7561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:07:40</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44076.58865740741</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7812,10 +7630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:06:50</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44076.5880787037</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7887,10 +7703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:06:49</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44076.58806712963</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7960,10 +7774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:06:48</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44076.58805555556</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8027,10 +7839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:06:47</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44076.58804398148</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8106,10 +7916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:06:40</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44076.58796296296</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8185,10 +7993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:06:11</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44076.58762731482</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8260,10 +8066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:05:54</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44076.58743055556</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8332,10 +8136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:05:45</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44076.58732638889</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8403,10 +8205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:05:38</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44076.58724537037</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8482,10 +8282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:04:16</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44076.58629629629</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8561,10 +8359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:04:09</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44076.58621527778</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8632,10 +8428,8 @@
           <t>3446118930</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:03:37</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44076.58584490741</v>
       </c>
       <c r="I112" t="n">
         <v>2</v>
@@ -8711,10 +8505,8 @@
           <t>3446122403</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:03:37</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44076.58584490741</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8782,10 +8574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:03:20</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44076.58564814815</v>
       </c>
       <c r="I114" t="n">
         <v>2</v>
@@ -8861,10 +8651,8 @@
           <t>3446118930</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:03:08</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44076.58550925926</v>
       </c>
       <c r="I115" t="n">
         <v>6</v>
@@ -8928,10 +8716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:03:07</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44076.58549768518</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8995,10 +8781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:02:50</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44076.58530092592</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9074,10 +8858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:02:50</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44076.58530092592</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9153,10 +8935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:02:37</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44076.58515046296</v>
       </c>
       <c r="I119" t="n">
         <v>8</v>
@@ -9228,10 +9008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:02:34</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44076.58511574074</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9291,10 +9069,8 @@
           <t>3446122403</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:02:25</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44076.58501157408</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9366,10 +9142,8 @@
           <t>3446117962</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:02:05</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44076.58478009259</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9441,10 +9215,8 @@
           <t>3446113614</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:02:03</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44076.58475694444</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9512,10 +9284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:55</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44076.58466435185</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9583,10 +9353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:36</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44076.58444444444</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9654,10 +9422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:35</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44076.58443287037</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9721,10 +9487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:32</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44076.58439814814</v>
       </c>
       <c r="I127" t="n">
         <v>46</v>
@@ -9803,10 +9567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:20</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44076.58425925926</v>
       </c>
       <c r="I128" t="n">
         <v>2</v>
@@ -9874,10 +9636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:16</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44076.58421296296</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9945,10 +9705,8 @@
           <t>3446121250</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:12</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44076.58416666667</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10020,10 +9778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:03</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44076.5840625</v>
       </c>
       <c r="I131" t="n">
         <v>11</v>
@@ -10095,10 +9851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:03</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44076.5840625</v>
       </c>
       <c r="I132" t="n">
         <v>3</v>
@@ -10167,10 +9921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:02</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44076.58405092593</v>
       </c>
       <c r="I133" t="n">
         <v>15</v>
@@ -10243,10 +9995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:00</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44076.58402777778</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10318,10 +10068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:01:00</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44076.58402777778</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10393,10 +10141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:00:54</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44076.58395833334</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10472,10 +10218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:00:40</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44076.5837962963</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10551,10 +10295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:00:38</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44076.58377314815</v>
       </c>
       <c r="I138" t="n">
         <v>33</v>
@@ -10618,10 +10360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:00:35</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44076.58373842593</v>
       </c>
       <c r="I139" t="n">
         <v>103</v>
@@ -10697,10 +10437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:00:23</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44076.58359953704</v>
       </c>
       <c r="I140" t="n">
         <v>2</v>
